--- a/variable_summary.xlsx
+++ b/variable_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailuc-my.sharepoint.com/personal/chakras4_mail_uc_edu/Documents/UC (LCB) - MSIS/Semester 1/BANA 7025 Data Wrangling with R/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cincinnati\GitHub\SayakChakraborty\NewYork_AirBnB_Analysis_and_Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E47411-E803-402A-ADFA-403B5253AEB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{12E47411-E803-402A-ADFA-403B5253AEB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{74D6962E-EBE9-43F1-9567-1EC7C81A4391}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6C10E6B3-6D1F-43CC-9FA4-2F32BDB65371}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Variable</t>
   </si>
@@ -42,142 +44,115 @@
     <t>Description</t>
   </si>
   <si>
-    <t>anime_name</t>
-  </si>
-  <si>
-    <t>anime_id</t>
-  </si>
-  <si>
-    <t>broadcast_day</t>
-  </si>
-  <si>
-    <t>premiered_year</t>
-  </si>
-  <si>
-    <t>premiered_season</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> favorites</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wishlisted_members</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> popularity_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rankings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rated_by_no_of_viewers</t>
-  </si>
-  <si>
-    <t>viwers_rating</t>
-  </si>
-  <si>
-    <t>MPAA_rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> episode_duration</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> airing_status</t>
-  </si>
-  <si>
-    <t>no_of_episodes</t>
-  </si>
-  <si>
-    <t>studio</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>producers</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
-    <t>broadcast_time</t>
-  </si>
-  <si>
     <t>factor</t>
   </si>
   <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>anime title - extracted from the site.</t>
-  </si>
-  <si>
-    <t>anime type (e.g. TV, Movie, OVA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anime_type </t>
-  </si>
-  <si>
-    <t>source of anime (i.e original, manga, game, music, visual novel etc.)</t>
-  </si>
-  <si>
-    <t>number of episodes</t>
-  </si>
-  <si>
-    <t>True/False-  is still airing?</t>
-  </si>
-  <si>
-    <t>based on how many members/users have the respective anime in their list</t>
-  </si>
-  <si>
-    <t>number members that added this anime in their list</t>
-  </si>
-  <si>
-    <t>number members that favorites these in their list</t>
-  </si>
-  <si>
-    <t>the season the show first premiered</t>
-  </si>
-  <si>
-    <t>the year the show first premiered</t>
-  </si>
-  <si>
-    <t>the day of the week it gets broadcasted</t>
-  </si>
-  <si>
-    <t>the time of the day it gets broadcasted</t>
-  </si>
-  <si>
-    <t>anime ID (as in https://myanimelist.net/anime/animeID)</t>
-  </si>
-  <si>
-    <t>start date</t>
-  </si>
-  <si>
-    <t>per episode duration or entire duration, text string</t>
-  </si>
-  <si>
-    <t>age rating</t>
-  </si>
-  <si>
-    <t>score (higher = better)</t>
-  </si>
-  <si>
-    <t>number of users that scored</t>
-  </si>
-  <si>
-    <t>rank - weight according to MyAnimeList formula</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>host_id</t>
+  </si>
+  <si>
+    <t>host_name</t>
+  </si>
+  <si>
+    <t>neighbourhood_group</t>
+  </si>
+  <si>
+    <t>neighbourhood</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>room_type</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>minimum_nights</t>
+  </si>
+  <si>
+    <t>number_of_reviews</t>
+  </si>
+  <si>
+    <t>last_review</t>
+  </si>
+  <si>
+    <t>reviews_per_month</t>
+  </si>
+  <si>
+    <t>calculated_host_listings_count</t>
+  </si>
+  <si>
+    <t>availability_365</t>
+  </si>
+  <si>
+    <t>name of the listing</t>
+  </si>
+  <si>
+    <t>host ID</t>
+  </si>
+  <si>
+    <t>name of the host</t>
+  </si>
+  <si>
+    <t>latitude coordinates</t>
+  </si>
+  <si>
+    <t>longitude coordinates</t>
+  </si>
+  <si>
+    <t>listing space type</t>
+  </si>
+  <si>
+    <t>price in dollars</t>
+  </si>
+  <si>
+    <t>number of reviews</t>
+  </si>
+  <si>
+    <t>latest review</t>
+  </si>
+  <si>
+    <t>number of reviews per month</t>
+  </si>
+  <si>
+    <t>amount of listing per host</t>
+  </si>
+  <si>
+    <t>number of days when listing is available for booking</t>
+  </si>
+  <si>
+    <t>location in NYC</t>
+  </si>
+  <si>
+    <t>area in NYC</t>
+  </si>
+  <si>
+    <t>Sr.No.</t>
+  </si>
+  <si>
+    <t>unique listing ID</t>
+  </si>
+  <si>
+    <t>amount of minimum nights</t>
   </si>
 </sst>
 </file>
@@ -201,15 +176,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,13 +198,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,270 +537,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989174F0-9CA9-4D80-BB39-981499E1220A}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A17" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
